--- a/Spatial_data/UVic/Harrop-Archibald 2008/Wildlife Tree points/Wildlife Tree Points Metadata.xlsx
+++ b/Spatial_data/UVic/Harrop-Archibald 2008/Wildlife Tree points/Wildlife Tree Points Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Wildlife Tree points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4FB149-FE87-4D8D-ABFA-6FA19D920B74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98421CBA-CA0B-4041-80C4-9E8D5C72359E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2385" windowWidth="17400" windowHeight="10785" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -90,16 +90,72 @@
     <t>yyyy-mm-dd</t>
   </si>
   <si>
-    <t>Year-month-day
-E.g. 2008-11-29</t>
-  </si>
-  <si>
     <t>Ivy</t>
   </si>
   <si>
     <t xml:space="preserve">Visual estimate on a scale of 1 to 5 based on the coverage of ivy on the tree or object (Harrop-Archibald, 2008, pg.51). </t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>18-06-2020</t>
+  </si>
+  <si>
+    <t>WildLifTre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification code of the polygon used to outline the different sites based on ecosystems classifications (Green and Klinka, 1994). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presence of holes from woodpeckers or nesting birds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presence of galls on trees. </t>
+  </si>
+  <si>
+    <t>Batbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presence of a batbox found on the tree. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments for each point. </t>
+  </si>
+  <si>
+    <t>Wildlife Trees Points</t>
+  </si>
+  <si>
+    <t>Year-month-day.
+E.g. 2008-11-29.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category of wildlife tree baesd on appearance or decay class of coniferous trees (Backhouse, 1993). Some trees listed in the data are deciduous trees. </t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <r>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 0=No, 1=Yes (assumed as there was no explicit definition found). </t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -117,51 +173,223 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 1=individual tendrils of ivy; 2=quarter covered; 3=half covered; 4= three quarters covered; 5=completely covered </t>
-    </r>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>18-06-2020</t>
-  </si>
-  <si>
-    <t>Varied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildlife Trees </t>
-  </si>
-  <si>
-    <t>WildLifTre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identification code of the polygon used to outline the different sites based on ecosystems classifications (Green and Klinka, 1994). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category of wildlife tree baesd on appearance (Green and Klinka, 1994). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values: 1-9???
--1: snag not classified. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presence of holes from woodpeckers or nesting birds. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galls </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presence of galls on trees. </t>
-  </si>
-  <si>
-    <t>Batbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presence of a batbox found on the tree. </t>
+      <t xml:space="preserve"> 
+1=individual tendrils of ivy; 2=quarter covered; 3=half covered; 4= three quarters covered; 5=completely covered </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wildlife Tree Classification Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Live or healthy - no decay with habitat available for large bird nesters (e.g. eagles, osprey, herons, murrelets). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Live or unhealthy - decaying inside or attacked by disease or pests. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Dead (hard heartwood) - where twigs and needles present and roots stable. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dead (hard heartwood) - no needles/twigs, half the branches missing, loose bark, top maybe broken, roots stable. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dead (hard to spongy heartwood) - most of the bark is gone, internally decaying, roots stable to softening. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dead (spongy heartwood) - no branches are present. Sapwood is sloughing off. Roots further decayed where it softened to unstable. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dead (soft) - extreme internal decay although outer bark may be hard.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dead (soft) - extreme internal decay but smaller that decay class 7. May be fallen.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+9: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dead (fallen) - downed trees or stumps. 
+-1: not classified. </t>
+    </r>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species of wildlife tree if identifiable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General name of tree species. </t>
   </si>
 </sst>
 </file>
@@ -249,7 +477,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -265,20 +493,32 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -596,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2632A-81E2-4372-B21A-08C497B1BE35}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,75 +847,75 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
+      <c r="B3" s="4">
+        <v>2007</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>67</v>
+        <v>1238</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
@@ -683,7 +923,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -700,111 +940,148 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="192" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="E16" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Spatial_data/UVic/Harrop-Archibald 2008/Wildlife Tree points/Wildlife Tree Points Metadata.xlsx
+++ b/Spatial_data/UVic/Harrop-Archibald 2008/Wildlife Tree points/Wildlife Tree Points Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Wildlife Tree points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98421CBA-CA0B-4041-80C4-9E8D5C72359E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9145E4-B3D3-4A2D-938F-F6025795004B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
+    <workbookView xWindow="1860" yWindow="255" windowWidth="16560" windowHeight="14595" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Date that the point was gathered. </t>
-  </si>
-  <si>
-    <t>yyyy-mm-dd</t>
-  </si>
-  <si>
     <t>Ivy</t>
   </si>
   <si>
@@ -132,10 +126,6 @@
     <t>Wildlife Trees Points</t>
   </si>
   <si>
-    <t>Year-month-day.
-E.g. 2008-11-29.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Category of wildlife tree baesd on appearance or decay class of coniferous trees (Backhouse, 1993). Some trees listed in the data are deciduous trees. </t>
   </si>
   <si>
@@ -153,28 +143,6 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 0=No, 1=Yes (assumed as there was no explicit definition found). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ivy coverage values:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-1=individual tendrils of ivy; 2=quarter covered; 3=half covered; 4= three quarters covered; 5=completely covered </t>
     </r>
   </si>
   <si>
@@ -386,10 +354,141 @@
     <t>Species</t>
   </si>
   <si>
-    <t xml:space="preserve">Species of wildlife tree if identifiable. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">General name of tree species. </t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Year the data was recorded.</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Month the data was recorded.</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Day the data was recorded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+yyyy. E.g. 2008. 
+NULL = neither the original meta-data nor accompanying report gave the year of creation. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1-12. E.g. 2=February.
+NULL = neither the original meta-data nor accompanying report gave the month of creation. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1-31. E.g. 15=the 15th day of a month. 
+NULL = neither the original meta-data nor accompanying report gave the day of creation.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Identified species of wildlife tree. </t>
+  </si>
+  <si>
+    <r>
+      <t>General name of tree species. E.g. Maple (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Acer spp.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+NULL = species was identifiable or not recorded. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ivy coverage values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1=individual tendrils of ivy; 2=quarter covered; 3=half covered; 4= three quarters covered; 5=completely covered.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -477,7 +576,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,26 +598,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -836,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2632A-81E2-4372-B21A-08C497B1BE35}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,20 +953,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -886,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -941,141 +1043,177 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="192" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="192" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="E18" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="14"/>
+      <c r="E19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
